--- a/backend/hct_mis_api/apps/registration_datahub/tests/test_file/rdi_people_test.xlsx
+++ b/backend/hct_mis_api/apps/registration_datahub/tests/test_file/rdi_people_test.xlsx
@@ -1081,13 +1081,13 @@
     <t>pp_payment_delivery_phone_no_i_c</t>
   </si>
   <si>
-    <t>pp_card_number_atm_card_i_c</t>
-  </si>
-  <si>
-    <t>pp_card_expiry_date_atm_card_i_c</t>
-  </si>
-  <si>
-    <t>pp_name_of_cardholder_atm_card_i_c</t>
+    <t>pp_card_number__atm_card_i_c</t>
+  </si>
+  <si>
+    <t>pp_card_expiry_date__atm_card_i_c</t>
+  </si>
+  <si>
+    <t>pp_name_of_cardholder__atm_card_i_c</t>
   </si>
   <si>
     <t>Index ID - INTEGER</t>
